--- a/src/main/java/testData/ExcelFiles/UserData.xlsx
+++ b/src/main/java/testData/ExcelFiles/UserData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awhitten/IdeaProjects/Iceberg/src/main/java/testData/ExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A393C15-3EDE-6446-B685-55DCE0FDA4C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECA90E5-49BF-734C-A470-74491C0C6F8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2180" yWindow="940" windowWidth="23620" windowHeight="14700" xr2:uid="{FE8C1DF2-56B9-D545-AA0B-BB3817B77F29}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{FE8C1DF2-56B9-D545-AA0B-BB3817B77F29}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Test Customer</t>
   </si>
   <si>
-    <t>customer2</t>
-  </si>
-  <si>
     <t>customer3</t>
   </si>
   <si>
@@ -66,9 +63,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Overdraft / negative balance</t>
-  </si>
-  <si>
     <t>Over 1000 transactions</t>
   </si>
   <si>
@@ -94,6 +88,18 @@
   </si>
   <si>
     <t>TESTPASSWORD</t>
+  </si>
+  <si>
+    <t>No Transaction User</t>
+  </si>
+  <si>
+    <t>Has no transactions yet</t>
+  </si>
+  <si>
+    <t>NOTRANSACTIONUSER</t>
+  </si>
+  <si>
+    <t>NOTRANSACTIONPASSWORD</t>
   </si>
 </sst>
 </file>
@@ -538,15 +544,15 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" style="6" customWidth="1"/>
     <col min="2" max="2" width="51.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="15" style="8" customWidth="1"/>
+    <col min="3" max="3" width="33" style="7" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" style="8" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
     <col min="7" max="7" width="23.6640625" customWidth="1"/>
@@ -559,10 +565,10 @@
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -570,90 +576,96 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>11</v>
-      </c>
       <c r="E2" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
